--- a/excel/example.xlsx
+++ b/excel/example.xlsx
@@ -16,18 +16,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Example excel</t>
   </si>
   <si>
-    <t>Left</t>
+    <t>Left Top</t>
+  </si>
+  <si>
+    <t>Center Top</t>
+  </si>
+  <si>
+    <t>Right Top</t>
+  </si>
+  <si>
+    <t>Left Center</t>
   </si>
   <si>
     <t>Center</t>
   </si>
   <si>
-    <t>Right</t>
+    <t>Right Center</t>
+  </si>
+  <si>
+    <t>Left Bottom</t>
+  </si>
+  <si>
+    <t>Center Bottom</t>
+  </si>
+  <si>
+    <t>Right Bottom</t>
   </si>
   <si>
     <t>Other font</t>
@@ -38,9 +56,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -65,6 +83,36 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -79,15 +127,86 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -102,107 +221,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -224,19 +242,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -248,43 +368,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -296,7 +380,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -308,103 +404,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -433,15 +451,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -453,21 +462,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -496,17 +490,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -525,6 +519,30 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -538,10 +556,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -550,137 +568,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -688,16 +706,37 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1047,10 +1086,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:L10"/>
+  <dimension ref="B2:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1107,11 +1146,11 @@
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
-      <c r="J6" s="5" t="s">
+      <c r="J6" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
     </row>
     <row r="7" spans="2:12">
       <c r="B7" s="2"/>
@@ -1120,9 +1159,9 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
     </row>
     <row r="9" spans="2:12">
       <c r="B9" s="4" t="s">
@@ -1130,35 +1169,100 @@
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
+      <c r="F9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="J9" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
     </row>
     <row r="10" spans="2:12">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+    </row>
+    <row r="12" spans="2:12">
+      <c r="B12" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="F12" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="J12" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+    </row>
+    <row r="13" spans="2:12">
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+    </row>
+    <row r="15" spans="2:12">
+      <c r="B15" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+    </row>
+    <row r="16" spans="2:12">
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+    </row>
+    <row r="18" spans="8:8">
+      <c r="H18" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="11">
     <mergeCell ref="B2:L4"/>
     <mergeCell ref="B6:D7"/>
     <mergeCell ref="F6:H7"/>
     <mergeCell ref="J6:L7"/>
-    <mergeCell ref="B9:L10"/>
+    <mergeCell ref="B9:D10"/>
+    <mergeCell ref="F9:H10"/>
+    <mergeCell ref="J9:L10"/>
+    <mergeCell ref="B15:L16"/>
+    <mergeCell ref="B12:D13"/>
+    <mergeCell ref="F12:H13"/>
+    <mergeCell ref="J12:L13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
